--- a/LuaFramework_UGUI-master/Assets/Excel/Pve.xlsx
+++ b/LuaFramework_UGUI-master/Assets/Excel/Pve.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,6 +158,34 @@
   </si>
   <si>
     <t>killMonsterNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每分钟获取经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每分钟获取金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -237,11 +265,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -543,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -554,18 +583,19 @@
     <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13.375" style="1" customWidth="1"/>
-    <col min="5" max="7" width="35.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="22.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="29.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="21.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="33.75" style="1" customWidth="1"/>
-    <col min="15" max="15" width="21.25" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="5" max="9" width="35.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="29.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="22.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="21.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="33.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="21.25" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,28 +618,34 @@
         <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -622,29 +658,41 @@
       <c r="E2" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="H2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -665,28 +713,34 @@
         <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="O3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:16">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -699,34 +753,40 @@
       <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="6">
         <v>200240</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="J6" s="4">
         <v>4</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="3">
+      <c r="L6" s="4">
         <v>1</v>
       </c>
-      <c r="K6" s="3">
+      <c r="M6" s="4">
+        <v>10</v>
+      </c>
+      <c r="N6" s="4">
         <v>1</v>
       </c>
-      <c r="L6" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="M6" s="3" t="s">
+      <c r="O6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="3">
+      <c r="P6" s="4">
         <v>1</v>
       </c>
     </row>

--- a/LuaFramework_UGUI-master/Assets/Excel/Pve.xlsx
+++ b/LuaFramework_UGUI-master/Assets/Excel/Pve.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,14 +186,26 @@
   </si>
   <si>
     <t>drop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,7 +300,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -362,6 +374,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -396,6 +409,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -571,141 +585,148 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.375" style="1" customWidth="1"/>
-    <col min="5" max="9" width="35.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="29.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="22.375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="21.375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="33.75" style="1" customWidth="1"/>
-    <col min="17" max="17" width="21.25" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.375" style="1" customWidth="1"/>
+    <col min="6" max="10" width="35.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="22.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="29.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="22.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="21.375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="33.75" style="1" customWidth="1"/>
+    <col min="18" max="18" width="21.25" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
@@ -713,80 +734,86 @@
         <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="6">
         <v>200240</v>
-      </c>
-      <c r="H6" s="4">
-        <v>1.2</v>
       </c>
       <c r="I6" s="4">
         <v>1.2</v>
       </c>
       <c r="J6" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="K6" s="4">
         <v>4</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
         <v>1</v>
       </c>
-      <c r="M6" s="4">
+      <c r="N6" s="4">
         <v>10</v>
       </c>
-      <c r="N6" s="4">
+      <c r="O6" s="4">
         <v>1</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="P6" s="4">
+      <c r="Q6" s="4">
         <v>1</v>
       </c>
     </row>
@@ -798,12 +825,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -811,12 +838,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LuaFramework_UGUI-master/Assets/Excel/Pve.xlsx
+++ b/LuaFramework_UGUI-master/Assets/Excel/Pve.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="64">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地图出现怪物的位置点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>monsterPosition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>monsterLevel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,10 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>660,399;661,565</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2,3,4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,14 +186,81 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置点1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterPosition1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置点3</t>
+  </si>
+  <si>
+    <t>位置点4</t>
+  </si>
+  <si>
+    <t>位置点5</t>
+  </si>
+  <si>
+    <t>位置点6</t>
+  </si>
+  <si>
+    <t>位置点7</t>
+  </si>
+  <si>
+    <t>位置点2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置点8</t>
+  </si>
+  <si>
+    <t>位置点9</t>
+  </si>
+  <si>
+    <t>位置点10</t>
+  </si>
+  <si>
+    <t>monsterPosition2</t>
+  </si>
+  <si>
+    <t>monsterPosition3</t>
+  </si>
+  <si>
+    <t>monsterPosition4</t>
+  </si>
+  <si>
+    <t>monsterPosition5</t>
+  </si>
+  <si>
+    <t>monsterPosition6</t>
+  </si>
+  <si>
+    <t>monsterPosition7</t>
+  </si>
+  <si>
+    <t>monsterPosition8</t>
+  </si>
+  <si>
+    <t>monsterPosition9</t>
+  </si>
+  <si>
+    <t>monsterPosition10</t>
+  </si>
+  <si>
+    <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,7 +355,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -374,7 +429,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -409,7 +463,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -585,34 +638,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F20" sqref="A18:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13.375" style="1" customWidth="1"/>
-    <col min="6" max="10" width="35.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="22.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="29.875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="22.375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="21.375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="33.75" style="1" customWidth="1"/>
-    <col min="18" max="18" width="21.25" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="6" max="15" width="17.875" style="1" customWidth="1"/>
+    <col min="16" max="19" width="35.25" style="1" customWidth="1"/>
+    <col min="20" max="20" width="23.625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="17.125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="22.375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="29.875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="22.375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="21.375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="33.75" style="1" customWidth="1"/>
+    <col min="27" max="27" width="21.25" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -624,48 +678,75 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -676,46 +757,76 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="F2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -724,47 +835,76 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="V3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="2" t="s">
+      <c r="X3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>15</v>
+      <c r="Z3" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -772,48 +912,75 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>200240</v>
+      </c>
+      <c r="R6" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="S6" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="T6" s="4">
+        <v>4</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="4">
+        <v>1</v>
+      </c>
+      <c r="W6" s="4">
+        <v>10</v>
+      </c>
+      <c r="X6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="6">
-        <v>200240</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="J6" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="K6" s="4">
-        <v>4</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="4">
-        <v>1</v>
-      </c>
-      <c r="N6" s="4">
-        <v>10</v>
-      </c>
-      <c r="O6" s="4">
-        <v>1</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" s="4">
+      <c r="Z6" s="4">
         <v>1</v>
       </c>
     </row>
@@ -825,12 +992,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -838,12 +1005,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LuaFramework_UGUI-master/Assets/Excel/Pve.xlsx
+++ b/LuaFramework_UGUI-master/Assets/Excel/Pve.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,12 +219,6 @@
     <t>位置点8</t>
   </si>
   <si>
-    <t>位置点9</t>
-  </si>
-  <si>
-    <t>位置点10</t>
-  </si>
-  <si>
     <t>monsterPosition2</t>
   </si>
   <si>
@@ -246,13 +240,27 @@
     <t>monsterPosition8</t>
   </si>
   <si>
-    <t>monsterPosition9</t>
-  </si>
-  <si>
-    <t>monsterPosition10</t>
-  </si>
-  <si>
     <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-16,3,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,0,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,0,29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,3,54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-40,-6,86</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="A18:F20"/>
+      <selection activeCell="M12" sqref="A12:M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -651,20 +659,20 @@
     <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13.375" style="1" customWidth="1"/>
-    <col min="6" max="15" width="17.875" style="1" customWidth="1"/>
-    <col min="16" max="19" width="35.25" style="1" customWidth="1"/>
-    <col min="20" max="20" width="23.625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="17.125" style="1" customWidth="1"/>
+    <col min="6" max="13" width="17.875" style="1" customWidth="1"/>
+    <col min="14" max="17" width="35.25" style="1" customWidth="1"/>
+    <col min="18" max="18" width="23.625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="17.125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="22.375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="29.875" style="1" customWidth="1"/>
     <col min="22" max="22" width="22.375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="29.875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="22.375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="21.375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="33.75" style="1" customWidth="1"/>
-    <col min="27" max="27" width="21.25" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="1"/>
+    <col min="23" max="23" width="21.375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="33.75" style="1" customWidth="1"/>
+    <col min="25" max="25" width="21.25" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -705,46 +713,40 @@
         <v>51</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:24">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -758,73 +760,67 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
@@ -865,46 +861,40 @@
         <v>20</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:24">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -921,66 +911,60 @@
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="6">
+        <v>200240</v>
+      </c>
+      <c r="P6" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="R6" s="4">
+        <v>4</v>
+      </c>
+      <c r="S6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>200240</v>
-      </c>
-      <c r="R6" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="S6" s="4">
-        <v>1.2</v>
-      </c>
       <c r="T6" s="4">
-        <v>4</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="U6" s="4">
+        <v>10</v>
       </c>
       <c r="V6" s="4">
         <v>1</v>
       </c>
-      <c r="W6" s="4">
-        <v>10</v>
+      <c r="W6" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="X6" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z6" s="4">
         <v>1</v>
       </c>
     </row>

--- a/LuaFramework_UGUI-master/Assets/Excel/Pve.xlsx
+++ b/LuaFramework_UGUI-master/Assets/Excel/Pve.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,10 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">普通怪物出现个数 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>关卡1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -261,6 +253,10 @@
   </si>
   <si>
     <t>-40,-6,86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M12" sqref="A12:M17"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -674,7 +670,7 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -686,46 +682,46 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>8</v>
@@ -734,10 +730,10 @@
         <v>9</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>10</v>
@@ -748,7 +744,7 @@
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -760,69 +756,69 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="N2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="R2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -831,67 +827,67 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="P3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -902,40 +898,40 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="K6" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O6" s="6">
         <v>200240</v>
@@ -950,7 +946,7 @@
         <v>4</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="T6" s="4">
         <v>1</v>
@@ -961,8 +957,8 @@
       <c r="V6" s="4">
         <v>1</v>
       </c>
-      <c r="W6" s="4" t="s">
-        <v>28</v>
+      <c r="W6" s="4">
+        <v>1</v>
       </c>
       <c r="X6" s="4">
         <v>1</v>
